--- a/kb/unit-converter/velocity.xlsx
+++ b/kb/unit-converter/velocity.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_6B87B5CAFD65E6FC62E2316AD8EE3F7CA86C2D53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B97ABA6-234F-41A4-BD83-CA4E8535BA40}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -20,42 +34,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">Measure Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell B2 Must be the name of the measure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal Places</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell B3 must be an integer, it controls number of decimal places used in the converter output for this measure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">velocity.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icon, must be populated.  The png should be in the images directory of the edb source folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m/s</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Measure Label</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Cell B2 Must be the name of the measure</t>
+  </si>
+  <si>
+    <t>Decimal Places</t>
+  </si>
+  <si>
+    <t>Cell B3 must be an integer, it controls number of decimal places used in the converter output for this measure.</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>velocity.png</t>
+  </si>
+  <si>
+    <t>Icon, must be populated.  The png should be in the images directory of the edb source folder</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>m/s</t>
   </si>
   <si>
     <r>
@@ -69,13 +83,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">always</t>
+      <t>always</t>
     </r>
     <r>
       <rPr>
@@ -88,35 +102,41 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ft/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For all other units, the factor should be the DIVISOR, in order to get from the unit on this row, to the standard unit in row 6.  For example, if you have 5000mm, then dividing by 1000 gets you 5 meters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can place as many units as you want – the system will read until there is an empty cell in column A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yd/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yd/s</t>
+    <t>ft/s</t>
+  </si>
+  <si>
+    <t>For all other units, the factor should be the DIVISOR, in order to get from the unit on this row, to the standard unit in row 6.  For example, if you have 5000mm, then dividing by 1000 gets you 5 meters.</t>
+  </si>
+  <si>
+    <t>ft/min</t>
+  </si>
+  <si>
+    <t>You can place as many units as you want – the system will read until there is an empty cell in column A</t>
+  </si>
+  <si>
+    <t>m/min</t>
+  </si>
+  <si>
+    <t>yd/min</t>
+  </si>
+  <si>
+    <t>yd/s</t>
+  </si>
+  <si>
+    <t>in/s</t>
+  </si>
+  <si>
+    <t>mph</t>
+  </si>
+  <si>
+    <t>km/h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -124,29 +144,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -168,7 +173,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -176,65 +181,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -293,31 +265,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -328,18 +608,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -350,14 +630,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="16.149999999999999">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -366,70 +646,366 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="54.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="46.5">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>3.28083989501312</v>
+      <c r="B7" s="1">
+        <v>3.2808398950131199</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="24">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>196.850393700787</v>
+      <c r="B8" s="1">
+        <f>1/0.00508</f>
+        <v>196.85039370078738</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>59.9999880000024</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B9">
+        <v>59.999988000002404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>65.6167979002625</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B10">
+        <v>65.616797900262497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>1.09361329833771</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <f>1/0.0254</f>
+        <v>39.370078740157481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <f>1/0.44704</f>
+        <v>2.2369362920544025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <f>1/0.2777778</f>
+        <v>3.5999997120000229</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5F168F66F91CF43BAEE65DC9E9CF3DF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="012c7fef03233136f3b92728f80e18f9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8da57d07-bd53-4918-9441-156ccef8128a" xmlns:ns3="32f445ef-0db1-4ff5-a403-59aa008b5549" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bc58cbf5cc050e49b481be3a36a2ee3" ns2:_="" ns3:_="">
+    <xsd:import namespace="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <xsd:import namespace="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8da57d07-bd53-4918-9441-156ccef8128a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="18c22185-266d-4dbf-8bc9-f312ea01a8ea" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="32f445ef-0db1-4ff5-a403-59aa008b5549" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{72fdf2aa-35ea-45bb-903c-e2487b42d74a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="32f445ef-0db1-4ff5-a403-59aa008b5549">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C9BE71-5A1E-4DD6-A83C-DF21F5350DF5}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F9CBA18-4E31-424D-9A90-A5CEB34DDDE0}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9101549-E843-4DCD-96AB-B6660AA03F8F}"/>
 </file>
--- a/kb/unit-converter/velocity.xlsx
+++ b/kb/unit-converter/velocity.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_6B87B5CAFD65E6FC62E2316AD8EE3F7CA86C2D53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B97ABA6-234F-41A4-BD83-CA4E8535BA40}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_6B87B5CAFD65E6FC62E2316AD8EE3F7CA86C2D53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12929817-81B3-4173-812F-27509A73D624}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B6" sqref="B6:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -673,7 +673,6 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <f>1/0.00508</f>
         <v>196.85039370078738</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -709,7 +708,6 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <f>1/0.0254</f>
         <v>39.370078740157481</v>
       </c>
     </row>
@@ -718,7 +716,6 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <f>1/0.44704</f>
         <v>2.2369362920544025</v>
       </c>
     </row>
@@ -727,7 +724,6 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <f>1/0.2777778</f>
         <v>3.5999997120000229</v>
       </c>
     </row>
@@ -742,6 +738,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5F168F66F91CF43BAEE65DC9E9CF3DF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="012c7fef03233136f3b92728f80e18f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8da57d07-bd53-4918-9441-156ccef8128a" xmlns:ns3="32f445ef-0db1-4ff5-a403-59aa008b5549" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bc58cbf5cc050e49b481be3a36a2ee3" ns2:_="" ns3:_="">
     <xsd:import namespace="8da57d07-bd53-4918-9441-156ccef8128a"/>
@@ -978,28 +994,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C9BE71-5A1E-4DD6-A83C-DF21F5350DF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9101549-E843-4DCD-96AB-B6660AA03F8F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1007,5 +1003,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9101549-E843-4DCD-96AB-B6660AA03F8F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C9BE71-5A1E-4DD6-A83C-DF21F5350DF5}"/>
 </file>
--- a/kb/unit-converter/velocity.xlsx
+++ b/kb/unit-converter/velocity.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_6B87B5CAFD65E6FC62E2316AD8EE3F7CA86C2D53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12929817-81B3-4173-812F-27509A73D624}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -20,42 +34,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">Measure Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell B2 Must be the name of the measure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal Places</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell B3 must be an integer, it controls number of decimal places used in the converter output for this measure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">velocity.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icon, must be populated.  The png should be in the images directory of the edb source folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m/s</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Measure Label</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Cell B2 Must be the name of the measure</t>
+  </si>
+  <si>
+    <t>Decimal Places</t>
+  </si>
+  <si>
+    <t>Cell B3 must be an integer, it controls number of decimal places used in the converter output for this measure.</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>velocity.png</t>
+  </si>
+  <si>
+    <t>Icon, must be populated.  The png should be in the images directory of the edb source folder</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>m/s</t>
   </si>
   <si>
     <r>
@@ -69,13 +83,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">always</t>
+      <t>always</t>
     </r>
     <r>
       <rPr>
@@ -88,35 +102,41 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ft/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For all other units, the factor should be the DIVISOR, in order to get from the unit on this row, to the standard unit in row 6.  For example, if you have 5000mm, then dividing by 1000 gets you 5 meters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can place as many units as you want – the system will read until there is an empty cell in column A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yd/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yd/s</t>
+    <t>ft/s</t>
+  </si>
+  <si>
+    <t>For all other units, the factor should be the DIVISOR, in order to get from the unit on this row, to the standard unit in row 6.  For example, if you have 5000mm, then dividing by 1000 gets you 5 meters.</t>
+  </si>
+  <si>
+    <t>ft/min</t>
+  </si>
+  <si>
+    <t>You can place as many units as you want – the system will read until there is an empty cell in column A</t>
+  </si>
+  <si>
+    <t>m/min</t>
+  </si>
+  <si>
+    <t>yd/min</t>
+  </si>
+  <si>
+    <t>yd/s</t>
+  </si>
+  <si>
+    <t>in/s</t>
+  </si>
+  <si>
+    <t>mph</t>
+  </si>
+  <si>
+    <t>km/h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -124,29 +144,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -168,7 +173,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -176,65 +181,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -293,31 +265,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -328,18 +608,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -350,14 +630,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="16.149999999999999">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -366,70 +646,362 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="54.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="46.5">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>3.28083989501312</v>
+      <c r="B7" s="1">
+        <v>3.2808398950131199</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="24">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>196.850393700787</v>
+      <c r="B8" s="1">
+        <v>196.85039370078738</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>59.9999880000024</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B9">
+        <v>59.999988000002404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>65.6167979002625</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B10">
+        <v>65.616797900262497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>1.09361329833771</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>39.370078740157481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>2.2369362920544025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>3.5999997120000229</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5F168F66F91CF43BAEE65DC9E9CF3DF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="012c7fef03233136f3b92728f80e18f9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8da57d07-bd53-4918-9441-156ccef8128a" xmlns:ns3="32f445ef-0db1-4ff5-a403-59aa008b5549" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bc58cbf5cc050e49b481be3a36a2ee3" ns2:_="" ns3:_="">
+    <xsd:import namespace="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <xsd:import namespace="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8da57d07-bd53-4918-9441-156ccef8128a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="18c22185-266d-4dbf-8bc9-f312ea01a8ea" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="32f445ef-0db1-4ff5-a403-59aa008b5549" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{72fdf2aa-35ea-45bb-903c-e2487b42d74a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="32f445ef-0db1-4ff5-a403-59aa008b5549">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9101549-E843-4DCD-96AB-B6660AA03F8F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F9CBA18-4E31-424D-9A90-A5CEB34DDDE0}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C9BE71-5A1E-4DD6-A83C-DF21F5350DF5}"/>
 </file>
--- a/kb/unit-converter/velocity.xlsx
+++ b/kb/unit-converter/velocity.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_6B87B5CAFD65E6FC62E2316AD8EE3F7CA86C2D53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12929817-81B3-4173-812F-27509A73D624}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\edb\kb\unit-converter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A172565-62FA-41F6-9AC2-00C67365C047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37380" yWindow="1590" windowWidth="17625" windowHeight="11070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Measure Label</t>
   </si>
@@ -131,17 +133,54 @@
   <si>
     <t>km/h</t>
   </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>meter per second</t>
+  </si>
+  <si>
+    <t>foot per second</t>
+  </si>
+  <si>
+    <t>foot per minute</t>
+  </si>
+  <si>
+    <t>meter per minute</t>
+  </si>
+  <si>
+    <t>yard per minute</t>
+  </si>
+  <si>
+    <t>yard per second</t>
+  </si>
+  <si>
+    <t>inch per second</t>
+  </si>
+  <si>
+    <t>mile per hour</t>
+  </si>
+  <si>
+    <t>kilometer per hour</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -181,29 +220,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A49FEBCA-12D6-4A96-870C-330F875577F4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -287,9 +329,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +369,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -433,7 +475,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,7 +617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,148 +625,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B14"/>
+      <selection activeCell="C6" sqref="C6:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.149999999999999">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="54.75" customHeight="1">
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="46.5">
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>3.2808398950131199</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24">
+    <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>196.85039370078738</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9">
         <v>59.999988000002404</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10">
         <v>65.616797900262497</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11">
         <v>1.09361329833771</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12">
         <v>39.370078740157481</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13">
         <v>2.2369362920544025</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14">
         <v>3.5999997120000229</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -738,6 +814,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
@@ -746,15 +831,6 @@
     <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -995,13 +1071,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9101549-E843-4DCD-96AB-B6660AA03F8F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F9CBA18-4E31-424D-9A90-A5CEB34DDDE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F9CBA18-4E31-424D-9A90-A5CEB34DDDE0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9101549-E843-4DCD-96AB-B6660AA03F8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C9BE71-5A1E-4DD6-A83C-DF21F5350DF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C9BE71-5A1E-4DD6-A83C-DF21F5350DF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/kb/unit-converter/velocity.xlsx
+++ b/kb/unit-converter/velocity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\edb\kb\unit-converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A172565-62FA-41F6-9AC2-00C67365C047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEDDB54-A329-4F50-907C-329448A88442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37380" yWindow="1590" windowWidth="17625" windowHeight="11070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1800" windowWidth="19410" windowHeight="13575" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Measure Label</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>kilometer per hour</t>
+  </si>
+  <si>
+    <t>Default From Row</t>
+  </si>
+  <si>
+    <t>Default To Row</t>
   </si>
 </sst>
 </file>
@@ -625,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -675,131 +681,151 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="1">
         <v>3.2808398950131199</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B10" s="1">
         <v>196.85039370078738</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>59.999988000002404</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>65.616797900262497</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>1.09361329833771</v>
+        <v>59.999988000002404</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>39.370078740157481</v>
+        <v>65.616797900262497</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>2.2369362920544025</v>
+        <v>1.09361329833771</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>39.370078740157481</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>2.2369362920544025</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>3.5999997120000229</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -823,17 +849,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5F168F66F91CF43BAEE65DC9E9CF3DF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="012c7fef03233136f3b92728f80e18f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8da57d07-bd53-4918-9441-156ccef8128a" xmlns:ns3="32f445ef-0db1-4ff5-a403-59aa008b5549" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bc58cbf5cc050e49b481be3a36a2ee3" ns2:_="" ns3:_="">
     <xsd:import namespace="8da57d07-bd53-4918-9441-156ccef8128a"/>
@@ -1070,6 +1085,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F9CBA18-4E31-424D-9A90-A5CEB34DDDE0}">
   <ds:schemaRefs>
@@ -1079,17 +1105,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9101549-E843-4DCD-96AB-B6660AA03F8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
-    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C9BE71-5A1E-4DD6-A83C-DF21F5350DF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1106,4 +1121,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9101549-E843-4DCD-96AB-B6660AA03F8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/kb/unit-converter/velocity.xlsx
+++ b/kb/unit-converter/velocity.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_6B87B5CAFD65E6FC62E2316AD8EE3F7CA86C2D53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12929817-81B3-4173-812F-27509A73D624}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\edb\kb\unit-converter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEDDB54-A329-4F50-907C-329448A88442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1800" windowWidth="19410" windowHeight="13575" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Measure Label</t>
   </si>
@@ -131,17 +133,60 @@
   <si>
     <t>km/h</t>
   </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>meter per second</t>
+  </si>
+  <si>
+    <t>foot per second</t>
+  </si>
+  <si>
+    <t>foot per minute</t>
+  </si>
+  <si>
+    <t>meter per minute</t>
+  </si>
+  <si>
+    <t>yard per minute</t>
+  </si>
+  <si>
+    <t>yard per second</t>
+  </si>
+  <si>
+    <t>inch per second</t>
+  </si>
+  <si>
+    <t>mile per hour</t>
+  </si>
+  <si>
+    <t>kilometer per hour</t>
+  </si>
+  <si>
+    <t>Default From Row</t>
+  </si>
+  <si>
+    <t>Default To Row</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -181,29 +226,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A49FEBCA-12D6-4A96-870C-330F875577F4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -287,9 +335,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +375,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -433,7 +481,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,7 +623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,148 +631,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.149999999999999">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="54.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="46.5">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="1">
         <v>3.2808398950131199</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B10" s="1">
         <v>196.85039370078738</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>59.999988000002404</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>65.616797900262497</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>1.09361329833771</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>39.370078740157481</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>2.2369362920544025</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>3.5999997120000229</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -738,17 +840,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -757,7 +848,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5F168F66F91CF43BAEE65DC9E9CF3DF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="012c7fef03233136f3b92728f80e18f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8da57d07-bd53-4918-9441-156ccef8128a" xmlns:ns3="32f445ef-0db1-4ff5-a403-59aa008b5549" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bc58cbf5cc050e49b481be3a36a2ee3" ns2:_="" ns3:_="">
     <xsd:import namespace="8da57d07-bd53-4918-9441-156ccef8128a"/>
@@ -994,14 +1085,51 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9101549-E843-4DCD-96AB-B6660AA03F8F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F9CBA18-4E31-424D-9A90-A5CEB34DDDE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F9CBA18-4E31-424D-9A90-A5CEB34DDDE0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C9BE71-5A1E-4DD6-A83C-DF21F5350DF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C9BE71-5A1E-4DD6-A83C-DF21F5350DF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9101549-E843-4DCD-96AB-B6660AA03F8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>